--- a/Reports/RSO/Prokopevsk/Hot_pSector/Hot_pSector.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_pSector/Hot_pSector.xlsx
@@ -93,9 +93,6 @@
     <t>$SUM_t1['standard']</t>
   </si>
   <si>
-    <t>"=I$R+J$R+K$R"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Площадь </t>
   </si>
   <si>
@@ -120,7 +117,10 @@
     <t>"=E$R*G$R"</t>
   </si>
   <si>
-    <t>$SUM_t1['summa12']</t>
+    <t>$SUM_t1['summa']</t>
+  </si>
+  <si>
+    <t>"=F{$R-1}+F{$R-2}"</t>
   </si>
 </sst>
 </file>
@@ -279,20 +279,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,10 +639,10 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="18.75">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="14"/>
       <c r="F2" s="16"/>
       <c r="G2" s="19"/>
@@ -670,13 +670,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>19</v>
@@ -703,20 +703,20 @@
       <c r="B5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>1</v>
@@ -744,14 +744,14 @@
       <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>33</v>
@@ -787,17 +787,17 @@
       <c r="B7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="25"/>
       <c r="I7" s="3" t="s">

--- a/Reports/RSO/Prokopevsk/Hot_pSector/Hot_pSector.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_pSector/Hot_pSector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>t1</t>
   </si>
@@ -72,9 +72,6 @@
     <t>$t1['kol_house']</t>
   </si>
   <si>
-    <t>$SUM_t1['kol_house']</t>
-  </si>
-  <si>
     <t>ИТОГО</t>
   </si>
   <si>
@@ -90,18 +87,12 @@
     <t>$t1['standard']</t>
   </si>
   <si>
-    <t>$SUM_t1['standard']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Площадь </t>
   </si>
   <si>
     <t>$t1['value45']</t>
   </si>
   <si>
-    <t>$SUM_t1['value45']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Объем </t>
   </si>
   <si>
@@ -117,10 +108,28 @@
     <t>"=E$R*G$R"</t>
   </si>
   <si>
-    <t>$SUM_t1['summa']</t>
-  </si>
-  <si>
-    <t>"=F{$R-1}+F{$R-2}"</t>
+    <t>$FSM_t1['F']</t>
+  </si>
+  <si>
+    <t>$FS0_t1['F:id_month']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['E']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['D']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['C']</t>
+  </si>
+  <si>
+    <t>$FS0_t1['E:id_month']</t>
+  </si>
+  <si>
+    <t>$FS0_t1['D:id_month']</t>
+  </si>
+  <si>
+    <t>$FS0_t1['C:id_month']</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,22 +673,22 @@
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4"/>
@@ -701,22 +710,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>1</v>
@@ -742,19 +751,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="22"/>
       <c r="I6" s="3" t="s">
@@ -782,22 +791,22 @@
     </row>
     <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="25"/>
       <c r="I7" s="3" t="s">
